--- a/Code/Results/Cases/Case_1_132/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_132/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.242253932143626</v>
+        <v>2.313917936120617</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.8455160934467187</v>
+        <v>0.2620200641667338</v>
       </c>
       <c r="E2">
-        <v>0.6452895077149634</v>
+        <v>0.1774925117578334</v>
       </c>
       <c r="F2">
-        <v>4.686955243411887</v>
+        <v>4.971185419538699</v>
       </c>
       <c r="G2">
-        <v>0.0007596544601243821</v>
+        <v>0.002632765969952425</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.64426010956808</v>
+        <v>1.490529160807945</v>
       </c>
       <c r="J2">
-        <v>0.6626379003233041</v>
+        <v>0.1788591254052818</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>3.276308982597811</v>
+        <v>2.014708627818834</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7557199565203536</v>
+        <v>1.766612247303891</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.818783278210731</v>
+        <v>2.222570831146925</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.7164424610525089</v>
+        <v>0.2336770182094767</v>
       </c>
       <c r="E3">
-        <v>0.5486723625171237</v>
+        <v>0.1548528657272996</v>
       </c>
       <c r="F3">
-        <v>4.165204999621153</v>
+        <v>4.905277031721369</v>
       </c>
       <c r="G3">
-        <v>0.0007774214586164669</v>
+        <v>0.002643053144961272</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.6399362947783089</v>
+        <v>1.504587246263817</v>
       </c>
       <c r="J3">
-        <v>0.5666646221133647</v>
+        <v>0.1553932956667694</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>2.827029346704535</v>
+        <v>1.924069595112741</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8284836866572771</v>
+        <v>1.792117770703404</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.565443176615759</v>
+        <v>2.167718327581611</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.6405578827114482</v>
+        <v>0.216451060731373</v>
       </c>
       <c r="E4">
-        <v>0.4914603757524674</v>
+        <v>0.1410105468693033</v>
       </c>
       <c r="F4">
-        <v>3.863963181137052</v>
+        <v>4.868492898754369</v>
       </c>
       <c r="G4">
-        <v>0.0007884539849704511</v>
+        <v>0.002649690116448375</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.6400864746398796</v>
+        <v>1.514126605686357</v>
       </c>
       <c r="J4">
-        <v>0.5095628915483559</v>
+        <v>0.1409970917365939</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>2.560912306219564</v>
+        <v>1.869725732864708</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.874611765811407</v>
+        <v>1.808506068148271</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.463615303289316</v>
+        <v>2.145673982405469</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.6103294778032762</v>
+        <v>0.2094736778140884</v>
       </c>
       <c r="E5">
-        <v>0.4685771286719103</v>
+        <v>0.1353830910397207</v>
       </c>
       <c r="F5">
-        <v>3.745317433978641</v>
+        <v>4.854420190662495</v>
       </c>
       <c r="G5">
-        <v>0.0007929905558409983</v>
+        <v>0.002652475716051317</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.6407804606246685</v>
+        <v>1.518241123011919</v>
       </c>
       <c r="J5">
-        <v>0.4866628301230946</v>
+        <v>0.1351324067345274</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>2.454511126642132</v>
+        <v>1.847904700745204</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8937649739346885</v>
+        <v>1.815367360036326</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.446784961778917</v>
+        <v>2.142032109718059</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.6053480929864747</v>
+        <v>0.2083175843448544</v>
       </c>
       <c r="E6">
-        <v>0.4648008085583442</v>
+        <v>0.1344494278149142</v>
       </c>
       <c r="F6">
-        <v>3.725846517363351</v>
+        <v>4.852138554402643</v>
       </c>
       <c r="G6">
-        <v>0.0007937465644220213</v>
+        <v>0.002652943164440202</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.6409319920783219</v>
+        <v>1.518938023580191</v>
       </c>
       <c r="J6">
-        <v>0.4828802505197416</v>
+        <v>0.1341586621069268</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>2.436956041334042</v>
+        <v>1.844300803942076</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8969665813614895</v>
+        <v>1.816517718480336</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.564064504982809</v>
+        <v>2.16741978339212</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.6401475794997395</v>
+        <v>0.2163567926687904</v>
       </c>
       <c r="E7">
-        <v>0.4911501388182558</v>
+        <v>0.1409346004871779</v>
       </c>
       <c r="F7">
-        <v>3.862347270131664</v>
+        <v>4.868299407910115</v>
       </c>
       <c r="G7">
-        <v>0.0007885149901513112</v>
+        <v>0.002649727355787472</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.640093360064057</v>
+        <v>1.514181177188391</v>
       </c>
       <c r="J7">
-        <v>0.5092526658331167</v>
+        <v>0.1409179923622474</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>2.559469558625807</v>
+        <v>1.869430138754296</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8748686440324533</v>
+        <v>1.808597861358169</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.09468173191533</v>
+        <v>2.28216384015019</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.8002130350601817</v>
+        <v>0.252209394514523</v>
       </c>
       <c r="E8">
-        <v>0.6114720490473857</v>
+        <v>0.1696734131346815</v>
       </c>
       <c r="F8">
-        <v>4.502634394443021</v>
+        <v>4.947689980905352</v>
       </c>
       <c r="G8">
-        <v>0.0007657612123161094</v>
+        <v>0.002636246664829915</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.6421398268336844</v>
+        <v>1.495187351301681</v>
       </c>
       <c r="J8">
-        <v>0.6291081232433271</v>
+        <v>0.1707649539434044</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>3.119109191260577</v>
+        <v>1.983181803761511</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7805018902436007</v>
+        <v>1.775255445352125</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.202975535692815</v>
+        <v>2.517085914787799</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.149371012104552</v>
+        <v>0.324019362812038</v>
       </c>
       <c r="E9">
-        <v>0.8698191156235566</v>
+        <v>0.2265572093989192</v>
       </c>
       <c r="F9">
-        <v>5.948579282988931</v>
+        <v>5.133042437469499</v>
       </c>
       <c r="G9">
-        <v>0.0007215816696018376</v>
+        <v>0.002612338376443874</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.6723996528112224</v>
+        <v>1.465191974681971</v>
       </c>
       <c r="J9">
-        <v>0.8837238524995996</v>
+        <v>0.2294428915165838</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>4.31658270354518</v>
+        <v>2.216858979302856</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6074374460875642</v>
+        <v>1.715648948492227</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.085223116100963</v>
+        <v>2.695902656930059</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.443221314017393</v>
+        <v>0.3778405792748458</v>
       </c>
       <c r="E10">
-        <v>1.083738182493946</v>
+        <v>0.2687632546904695</v>
       </c>
       <c r="F10">
-        <v>7.197354253707971</v>
+        <v>5.287946111611348</v>
       </c>
       <c r="G10">
-        <v>0.0006884067684718147</v>
+        <v>0.002596290393978269</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.7177814380052823</v>
+        <v>1.447645423281699</v>
       </c>
       <c r="J10">
-        <v>1.092170734960234</v>
+        <v>0.2727234025321366</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>5.298850536478767</v>
+        <v>2.395348429833405</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.4883865793067965</v>
+        <v>1.67538168529514</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.509891885379773</v>
+        <v>2.778643234879098</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.590267019852547</v>
+        <v>0.4025886952803432</v>
       </c>
       <c r="E11">
-        <v>1.189774500957299</v>
+        <v>0.288074415981086</v>
       </c>
       <c r="F11">
-        <v>7.828858742372944</v>
+        <v>5.362625697516904</v>
       </c>
       <c r="G11">
-        <v>0.0006728370683038571</v>
+        <v>0.002589314216436866</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.7457372951014563</v>
+        <v>1.440653970721286</v>
       </c>
       <c r="J11">
-        <v>1.194791648134469</v>
+        <v>0.2924676650524987</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>5.781526280110768</v>
+        <v>2.478102931139745</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.4362150211383895</v>
+        <v>1.657829552700539</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.675081408762424</v>
+        <v>2.810178796560933</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.64852260704356</v>
+        <v>0.4120008609106094</v>
       </c>
       <c r="E12">
-        <v>1.231613193931594</v>
+        <v>0.2954047381571883</v>
       </c>
       <c r="F12">
-        <v>8.079898112192183</v>
+        <v>5.391522498863083</v>
       </c>
       <c r="G12">
-        <v>0.0006668331549886194</v>
+        <v>0.002586718734637649</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.7576480829607348</v>
+        <v>1.438150273054184</v>
       </c>
       <c r="J12">
-        <v>1.235162988976839</v>
+        <v>0.2999537493398066</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>5.971107557812786</v>
+        <v>2.50967016559207</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.4167696698764534</v>
+        <v>1.651293275209568</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.639289997834794</v>
+        <v>2.803377953028928</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.635848728472808</v>
+        <v>0.4099719360816607</v>
       </c>
       <c r="E13">
-        <v>1.222518866441305</v>
+        <v>0.2938252134849648</v>
       </c>
       <c r="F13">
-        <v>8.025247483392207</v>
+        <v>5.385271417479117</v>
       </c>
       <c r="G13">
-        <v>0.0006681317935947512</v>
+        <v>0.00258727566704309</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.755018574257889</v>
+        <v>1.438683070772065</v>
       </c>
       <c r="J13">
-        <v>1.226393240163901</v>
+        <v>0.2983410489863445</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>5.929942368295144</v>
+        <v>2.502861278330556</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.4209432744307069</v>
+        <v>1.652696068458443</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.523387261844562</v>
+        <v>2.781233589796727</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.595003569249343</v>
+        <v>0.4033622114791058</v>
       </c>
       <c r="E14">
-        <v>1.193179764636952</v>
+        <v>0.2886771239531782</v>
       </c>
       <c r="F14">
-        <v>7.849253782755085</v>
+        <v>5.364990617353016</v>
       </c>
       <c r="G14">
-        <v>0.0006723455642589622</v>
+        <v>0.002589099759955016</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.7466887496938099</v>
+        <v>1.440445099789436</v>
       </c>
       <c r="J14">
-        <v>1.198079968342029</v>
+        <v>0.2930833542633309</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>5.796975289023294</v>
+        <v>2.480695345341815</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.434608841747874</v>
+        <v>1.657289596557128</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.452999879320544</v>
+        <v>2.767696113833154</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.570343227697293</v>
+        <v>0.3993189271794222</v>
       </c>
       <c r="E15">
-        <v>1.175443724395279</v>
+        <v>0.2855261108150984</v>
       </c>
       <c r="F15">
-        <v>7.74310226498821</v>
+        <v>5.352648771882798</v>
       </c>
       <c r="G15">
-        <v>0.0006749111449735355</v>
+        <v>0.002590223080990742</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.7417687012886631</v>
+        <v>1.441543163536032</v>
       </c>
       <c r="J15">
-        <v>1.180948146535599</v>
+        <v>0.2898641240594202</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>5.716474168758907</v>
+        <v>2.467148185172391</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.4430207430017212</v>
+        <v>1.660117641168972</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.058019179625319</v>
+        <v>2.690523689177098</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.433930900251738</v>
+        <v>0.3762287717142385</v>
       </c>
       <c r="E16">
-        <v>1.07701732273361</v>
+        <v>0.2675036012131073</v>
       </c>
       <c r="F16">
-        <v>7.157576589512331</v>
+        <v>5.28315137298344</v>
       </c>
       <c r="G16">
-        <v>0.0006894116151672102</v>
+        <v>0.002596752794709619</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.7161229054915736</v>
+        <v>1.448122380286726</v>
       </c>
       <c r="J16">
-        <v>1.085651276947289</v>
+        <v>0.2714343042763119</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>5.268155820343907</v>
+        <v>2.389972082320639</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.4918380987654931</v>
+        <v>1.676544184940287</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.822312921985258</v>
+        <v>2.643540370632536</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.354064428749524</v>
+        <v>0.3621332636390378</v>
       </c>
       <c r="E17">
-        <v>1.019130712480617</v>
+        <v>0.2564770248017822</v>
       </c>
       <c r="F17">
-        <v>6.816317311671128</v>
+        <v>5.241604079198595</v>
       </c>
       <c r="G17">
-        <v>0.0006981608292560096</v>
+        <v>0.002600841321238635</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.7024303030314414</v>
+        <v>1.452413188661296</v>
       </c>
       <c r="J17">
-        <v>1.029422539674869</v>
+        <v>0.2601434280354056</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>5.003310126996269</v>
+        <v>2.343030313227814</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.522310716649109</v>
+        <v>1.686817600200447</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.688860003139268</v>
+        <v>2.616648028721443</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.309336450368619</v>
+        <v>0.3540506470038167</v>
       </c>
       <c r="E18">
-        <v>0.9866241298000489</v>
+        <v>0.2501452197600855</v>
       </c>
       <c r="F18">
-        <v>6.625794089239974</v>
+        <v>5.218103032366173</v>
       </c>
       <c r="G18">
-        <v>0.0007031511025578528</v>
+        <v>0.002603223464365556</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.6952223631053016</v>
+        <v>1.454974300408963</v>
       </c>
       <c r="J18">
-        <v>0.9977854546276319</v>
+        <v>0.2536543784349305</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>4.854226196988634</v>
+        <v>2.316177011388561</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5400228079594349</v>
+        <v>1.692798648260933</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.644013217903478</v>
+        <v>2.60756519870688</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.294383796448159</v>
+        <v>0.3513181857036898</v>
       </c>
       <c r="E19">
-        <v>0.9757426184214353</v>
+        <v>0.2480031163775607</v>
       </c>
       <c r="F19">
-        <v>6.562205535605926</v>
+        <v>5.210213627710175</v>
       </c>
       <c r="G19">
-        <v>0.0007048344859258111</v>
+        <v>0.002604035271881482</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.6928896254154111</v>
+        <v>1.455857406549903</v>
       </c>
       <c r="J19">
-        <v>0.9871849238366508</v>
+        <v>0.2514581442915755</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>4.804265413582073</v>
+        <v>2.307109910311681</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5460509196664614</v>
+        <v>1.694836096323913</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.847178603433065</v>
+        <v>2.648528224659628</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.362437239233287</v>
+        <v>0.3636311751065193</v>
       </c>
       <c r="E20">
-        <v>1.025208625987943</v>
+        <v>0.2576497360266785</v>
       </c>
       <c r="F20">
-        <v>6.852031651308067</v>
+        <v>5.245985808077052</v>
       </c>
       <c r="G20">
-        <v>0.0006972340529231132</v>
+        <v>0.002600402933472026</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.7038171056073921</v>
+        <v>1.451946774055195</v>
       </c>
       <c r="J20">
-        <v>1.035332921086223</v>
+        <v>0.2613448170356492</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>5.031157061213207</v>
+        <v>2.348012155666424</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5190475376168742</v>
+        <v>1.685716518922709</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.557301971306572</v>
+        <v>2.787732380468583</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.606924540535061</v>
+        <v>0.4053025255672367</v>
       </c>
       <c r="E21">
-        <v>1.201747379168012</v>
+        <v>0.2901887520305451</v>
       </c>
       <c r="F21">
-        <v>7.900597120648257</v>
+        <v>5.370930735017708</v>
       </c>
       <c r="G21">
-        <v>0.0006711111946131301</v>
+        <v>0.002588562727464761</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.7490968186430464</v>
+        <v>1.439923634979948</v>
       </c>
       <c r="J21">
-        <v>1.206351396653957</v>
+        <v>0.294627401692992</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>5.835830145036709</v>
+        <v>2.487199730947225</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.4305862621720564</v>
+        <v>1.655937369609092</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.047693908852011</v>
+        <v>2.879897871494563</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.782215733423129</v>
+        <v>0.4327749881819329</v>
       </c>
       <c r="E22">
-        <v>1.327285559340694</v>
+        <v>0.3115582586856931</v>
       </c>
       <c r="F22">
-        <v>8.657409206469282</v>
+        <v>5.456192877705462</v>
       </c>
       <c r="G22">
-        <v>0.000653378465243761</v>
+        <v>0.002581093849436667</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.7866162552240752</v>
+        <v>1.432904736667339</v>
       </c>
       <c r="J22">
-        <v>1.327235695530788</v>
+        <v>0.3164347082991696</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.402652070848717</v>
+        <v>2.579509699900598</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.3746006194211819</v>
+        <v>1.637118206935824</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.783115226583334</v>
+        <v>2.830597809780159</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.686953857833117</v>
+        <v>0.4180897981243845</v>
       </c>
       <c r="E23">
-        <v>1.259163497599701</v>
+        <v>0.3001429572384779</v>
       </c>
       <c r="F23">
-        <v>8.245727229979138</v>
+        <v>5.410353298413185</v>
       </c>
       <c r="G23">
-        <v>0.000662920337581008</v>
+        <v>0.002585055602818863</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.7657482311908339</v>
+        <v>1.436573631219446</v>
       </c>
       <c r="J23">
-        <v>1.261711164730571</v>
+        <v>0.304790231449573</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.095663271527485</v>
+        <v>2.530117312120126</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.4043036983627797</v>
+        <v>1.647103410445236</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.835930491200088</v>
+        <v>2.646272845421947</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.358648235580461</v>
+        <v>0.3629539038679184</v>
       </c>
       <c r="E24">
-        <v>1.022458422971894</v>
+        <v>0.2571195299759665</v>
       </c>
       <c r="F24">
-        <v>6.835867728372051</v>
+        <v>5.244003629979545</v>
       </c>
       <c r="G24">
-        <v>0.0006976531696858964</v>
+        <v>0.002600601030413184</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.703188082778631</v>
+        <v>1.452157346575632</v>
       </c>
       <c r="J24">
-        <v>1.032658716983406</v>
+        <v>0.2608016622376681</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>5.018557674606029</v>
+        <v>2.345759447296473</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.5205222216058907</v>
+        <v>1.686214085035116</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.893531570400455</v>
+        <v>2.452454350248559</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.049757049049504</v>
+        <v>0.3044170520095406</v>
       </c>
       <c r="E25">
-        <v>0.7966192819324789</v>
+        <v>0.2111028156518699</v>
       </c>
       <c r="F25">
-        <v>5.530831510329079</v>
+        <v>5.079658507099396</v>
       </c>
       <c r="G25">
-        <v>0.0007335728928608205</v>
+        <v>0.00261853803714253</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.6607684827359037</v>
+        <v>1.472523037621826</v>
       </c>
       <c r="J25">
-        <v>0.8119239984145139</v>
+        <v>0.2135450002162003</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>3.978274555400844</v>
+        <v>2.152472797736664</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6528995997308069</v>
+        <v>1.731155242505192</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_132/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_132/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.313917936120617</v>
+        <v>3.242253932143683</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2620200641667338</v>
+        <v>0.8455160934466903</v>
       </c>
       <c r="E2">
-        <v>0.1774925117578334</v>
+        <v>0.6452895077149634</v>
       </c>
       <c r="F2">
-        <v>4.971185419538699</v>
+        <v>4.686955243411887</v>
       </c>
       <c r="G2">
-        <v>0.002632765969952425</v>
+        <v>0.0007596544600669273</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.490529160807945</v>
+        <v>0.6442601095680516</v>
       </c>
       <c r="J2">
-        <v>0.1788591254052818</v>
+        <v>0.6626379003233751</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>2.014708627818834</v>
+        <v>3.276308982597641</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.766612247303891</v>
+        <v>0.7557199565204034</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.222570831146925</v>
+        <v>2.818783278210731</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2336770182094767</v>
+        <v>0.7164424610525373</v>
       </c>
       <c r="E3">
-        <v>0.1548528657272996</v>
+        <v>0.5486723625171166</v>
       </c>
       <c r="F3">
-        <v>4.905277031721369</v>
+        <v>4.165204999621182</v>
       </c>
       <c r="G3">
-        <v>0.002643053144961272</v>
+        <v>0.0007774214586454347</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.504587246263817</v>
+        <v>0.6399362947782876</v>
       </c>
       <c r="J3">
-        <v>0.1553932956667694</v>
+        <v>0.5666646221133504</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.924069595112741</v>
+        <v>2.827029346704478</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.792117770703404</v>
+        <v>0.8284836866573482</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.167718327581611</v>
+        <v>2.565443176615588</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.216451060731373</v>
+        <v>0.6405578827112492</v>
       </c>
       <c r="E4">
-        <v>0.1410105468693033</v>
+        <v>0.4914603757524958</v>
       </c>
       <c r="F4">
-        <v>4.868492898754369</v>
+        <v>3.863963181137024</v>
       </c>
       <c r="G4">
-        <v>0.002649690116448375</v>
+        <v>0.000788453985027263</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.514126605686357</v>
+        <v>0.6400864746398796</v>
       </c>
       <c r="J4">
-        <v>0.1409970917365939</v>
+        <v>0.509562891548299</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.869725732864708</v>
+        <v>2.560912306219564</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.808506068148271</v>
+        <v>0.874611765811462</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.145673982405469</v>
+        <v>2.463615303289487</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2094736778140884</v>
+        <v>0.6103294778029351</v>
       </c>
       <c r="E5">
-        <v>0.1353830910397207</v>
+        <v>0.4685771286719032</v>
       </c>
       <c r="F5">
-        <v>4.854420190662495</v>
+        <v>3.745317433978641</v>
       </c>
       <c r="G5">
-        <v>0.002652475716051317</v>
+        <v>0.0007929905557843853</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.518241123011919</v>
+        <v>0.6407804606246685</v>
       </c>
       <c r="J5">
-        <v>0.1351324067345274</v>
+        <v>0.4866628301230236</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1.847904700745204</v>
+        <v>2.45451112664216</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.815367360036326</v>
+        <v>0.8937649739346778</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.142032109718059</v>
+        <v>2.446784961778746</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2083175843448544</v>
+        <v>0.6053480929867305</v>
       </c>
       <c r="E6">
-        <v>0.1344494278149142</v>
+        <v>0.4648008085583513</v>
       </c>
       <c r="F6">
-        <v>4.852138554402643</v>
+        <v>3.725846517363323</v>
       </c>
       <c r="G6">
-        <v>0.002652943164440202</v>
+        <v>0.000793746564418205</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.518938023580191</v>
+        <v>0.640931992078329</v>
       </c>
       <c r="J6">
-        <v>0.1341586621069268</v>
+        <v>0.48288025051977</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.844300803942076</v>
+        <v>2.436956041334099</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.816517718480336</v>
+        <v>0.8969665813614647</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.16741978339212</v>
+        <v>2.564064504982468</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2163567926687904</v>
+        <v>0.6401475794995406</v>
       </c>
       <c r="E7">
-        <v>0.1409346004871779</v>
+        <v>0.4911501388182273</v>
       </c>
       <c r="F7">
-        <v>4.868299407910115</v>
+        <v>3.862347270131636</v>
       </c>
       <c r="G7">
-        <v>0.002649727355787472</v>
+        <v>0.0007885149901525675</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.514181177188391</v>
+        <v>0.640093360064057</v>
       </c>
       <c r="J7">
-        <v>0.1409179923622474</v>
+        <v>0.5092526658331167</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1.869430138754296</v>
+        <v>2.55946955862575</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.808597861358169</v>
+        <v>0.874868644032393</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.28216384015019</v>
+        <v>3.0946817319155</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.252209394514523</v>
+        <v>0.8002130350603238</v>
       </c>
       <c r="E8">
-        <v>0.1696734131346815</v>
+        <v>0.6114720490473573</v>
       </c>
       <c r="F8">
-        <v>4.947689980905352</v>
+        <v>4.502634394442993</v>
       </c>
       <c r="G8">
-        <v>0.002636246664829915</v>
+        <v>0.0007657612121755551</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.495187351301681</v>
+        <v>0.6421398268336773</v>
       </c>
       <c r="J8">
-        <v>0.1707649539434044</v>
+        <v>0.6291081232432703</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.983181803761511</v>
+        <v>3.11910919126052</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.775255445352125</v>
+        <v>0.7805018902436629</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.517085914787799</v>
+        <v>4.202975535692758</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.324019362812038</v>
+        <v>1.14937101210495</v>
       </c>
       <c r="E9">
-        <v>0.2265572093989192</v>
+        <v>0.8698191156235566</v>
       </c>
       <c r="F9">
-        <v>5.133042437469499</v>
+        <v>5.948579282988959</v>
       </c>
       <c r="G9">
-        <v>0.002612338376443874</v>
+        <v>0.0007215816696970619</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.465191974681971</v>
+        <v>0.6723996528112224</v>
       </c>
       <c r="J9">
-        <v>0.2294428915165838</v>
+        <v>0.8837238524996565</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>2.216858979302856</v>
+        <v>4.316582703544952</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.715648948492227</v>
+        <v>0.6074374460875571</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.695902656930059</v>
+        <v>5.085223116100963</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3778405792748458</v>
+        <v>1.443221314017251</v>
       </c>
       <c r="E10">
-        <v>0.2687632546904695</v>
+        <v>1.08373818249396</v>
       </c>
       <c r="F10">
-        <v>5.287946111611348</v>
+        <v>7.197354253707999</v>
       </c>
       <c r="G10">
-        <v>0.002596290393978269</v>
+        <v>0.0006884067682600381</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.447645423281699</v>
+        <v>0.7177814380052823</v>
       </c>
       <c r="J10">
-        <v>0.2727234025321366</v>
+        <v>1.092170734960121</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>2.395348429833405</v>
+        <v>5.298850536478994</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.67538168529514</v>
+        <v>0.4883865793067894</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.778643234879098</v>
+        <v>5.509891885379602</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.4025886952803432</v>
+        <v>1.590267019851922</v>
       </c>
       <c r="E11">
-        <v>0.288074415981086</v>
+        <v>1.189774500957284</v>
       </c>
       <c r="F11">
-        <v>5.362625697516904</v>
+        <v>7.828858742372972</v>
       </c>
       <c r="G11">
-        <v>0.002589314216436866</v>
+        <v>0.0006728370681932973</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.440653970721286</v>
+        <v>0.7457372951014491</v>
       </c>
       <c r="J11">
-        <v>0.2924676650524987</v>
+        <v>1.194791648134554</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>2.478102931139745</v>
+        <v>5.781526280110654</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.657829552700539</v>
+        <v>0.4362150211383771</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.810178796560933</v>
+        <v>5.675081408762367</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.4120008609106094</v>
+        <v>1.64852260704356</v>
       </c>
       <c r="E12">
-        <v>0.2954047381571883</v>
+        <v>1.231613193931651</v>
       </c>
       <c r="F12">
-        <v>5.391522498863083</v>
+        <v>8.079898112192183</v>
       </c>
       <c r="G12">
-        <v>0.002586718734637649</v>
+        <v>0.0006668331549859505</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.438150273054184</v>
+        <v>0.7576480829607348</v>
       </c>
       <c r="J12">
-        <v>0.2999537493398066</v>
+        <v>1.235162988976981</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>2.50967016559207</v>
+        <v>5.971107557812729</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.651293275209568</v>
+        <v>0.4167696698764445</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.803377953028928</v>
+        <v>5.639289997834794</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.4099719360816607</v>
+        <v>1.635848728472808</v>
       </c>
       <c r="E13">
-        <v>0.2938252134849648</v>
+        <v>1.222518866441249</v>
       </c>
       <c r="F13">
-        <v>5.385271417479117</v>
+        <v>8.025247483392178</v>
       </c>
       <c r="G13">
-        <v>0.00258727566704309</v>
+        <v>0.0006681317934855053</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.438683070772065</v>
+        <v>0.7550185742579103</v>
       </c>
       <c r="J13">
-        <v>0.2983410489863445</v>
+        <v>1.226393240163787</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>2.502861278330556</v>
+        <v>5.929942368295087</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.652696068458443</v>
+        <v>0.4209432744306945</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.781233589796727</v>
+        <v>5.523387261844448</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.4033622114791058</v>
+        <v>1.595003569249315</v>
       </c>
       <c r="E14">
-        <v>0.2886771239531782</v>
+        <v>1.193179764636881</v>
       </c>
       <c r="F14">
-        <v>5.364990617353016</v>
+        <v>7.849253782755028</v>
       </c>
       <c r="G14">
-        <v>0.002589099759955016</v>
+        <v>0.0006723455643710354</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.440445099789436</v>
+        <v>0.7466887496938099</v>
       </c>
       <c r="J14">
-        <v>0.2930833542633309</v>
+        <v>1.198079968342171</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>2.480695345341815</v>
+        <v>5.796975289023123</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.657289596557128</v>
+        <v>0.4346088417478882</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.767696113833154</v>
+        <v>5.452999879320657</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.3993189271794222</v>
+        <v>1.570343227697293</v>
       </c>
       <c r="E15">
-        <v>0.2855261108150984</v>
+        <v>1.175443724395294</v>
       </c>
       <c r="F15">
-        <v>5.352648771882798</v>
+        <v>7.743102264988238</v>
       </c>
       <c r="G15">
-        <v>0.002590223080990742</v>
+        <v>0.000674911144971535</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.441543163536032</v>
+        <v>0.7417687012886631</v>
       </c>
       <c r="J15">
-        <v>0.2898641240594202</v>
+        <v>1.180948146535627</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>2.467148185172391</v>
+        <v>5.716474168758964</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.660117641168972</v>
+        <v>0.4430207430017123</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.690523689177098</v>
+        <v>5.058019179625205</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3762287717142385</v>
+        <v>1.433930900251909</v>
       </c>
       <c r="E16">
-        <v>0.2675036012131073</v>
+        <v>1.077017322733568</v>
       </c>
       <c r="F16">
-        <v>5.28315137298344</v>
+        <v>7.157576589512303</v>
       </c>
       <c r="G16">
-        <v>0.002596752794709619</v>
+        <v>0.0006894116150637508</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.448122380286726</v>
+        <v>0.7161229054915665</v>
       </c>
       <c r="J16">
-        <v>0.2714343042763119</v>
+        <v>1.085651276947289</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>2.389972082320639</v>
+        <v>5.268155820343679</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.676544184940287</v>
+        <v>0.4918380987655517</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.643540370632536</v>
+        <v>4.822312921985315</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.3621332636390378</v>
+        <v>1.354064428749723</v>
       </c>
       <c r="E17">
-        <v>0.2564770248017822</v>
+        <v>1.019130712480589</v>
       </c>
       <c r="F17">
-        <v>5.241604079198595</v>
+        <v>6.816317311671156</v>
       </c>
       <c r="G17">
-        <v>0.002600841321238635</v>
+        <v>0.0006981608292562663</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.452413188661296</v>
+        <v>0.7024303030314343</v>
       </c>
       <c r="J17">
-        <v>0.2601434280354056</v>
+        <v>1.029422539674727</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>2.343030313227814</v>
+        <v>5.003310126996325</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.686817600200447</v>
+        <v>0.5223107166491623</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.616648028721443</v>
+        <v>4.688860003139382</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.3540506470038167</v>
+        <v>1.309336450368392</v>
       </c>
       <c r="E18">
-        <v>0.2501452197600855</v>
+        <v>0.9866241298001057</v>
       </c>
       <c r="F18">
-        <v>5.218103032366173</v>
+        <v>6.625794089240031</v>
       </c>
       <c r="G18">
-        <v>0.002603223464365556</v>
+        <v>0.0007031511026557467</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.454974300408963</v>
+        <v>0.6952223631053016</v>
       </c>
       <c r="J18">
-        <v>0.2536543784349305</v>
+        <v>0.9977854546277456</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>2.316177011388561</v>
+        <v>4.854226196988691</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.692798648260933</v>
+        <v>0.5400228079594225</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.60756519870688</v>
+        <v>4.644013217903534</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.3513181857036898</v>
+        <v>1.294383796448273</v>
       </c>
       <c r="E19">
-        <v>0.2480031163775607</v>
+        <v>0.9757426184214211</v>
       </c>
       <c r="F19">
-        <v>5.210213627710175</v>
+        <v>6.562205535605955</v>
       </c>
       <c r="G19">
-        <v>0.002604035271881482</v>
+        <v>0.0007048344861301815</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.455857406549903</v>
+        <v>0.692889625415404</v>
       </c>
       <c r="J19">
-        <v>0.2514581442915755</v>
+        <v>0.9871849238366508</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>2.307109910311681</v>
+        <v>4.804265413582073</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.694836096323913</v>
+        <v>0.54605091966644</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.648528224659628</v>
+        <v>4.847178603433179</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.3636311751065193</v>
+        <v>1.362437239233088</v>
       </c>
       <c r="E20">
-        <v>0.2576497360266785</v>
+        <v>1.025208625987943</v>
       </c>
       <c r="F20">
-        <v>5.245985808077052</v>
+        <v>6.852031651308096</v>
       </c>
       <c r="G20">
-        <v>0.002600402933472026</v>
+        <v>0.0006972340530225734</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.451946774055195</v>
+        <v>0.7038171056073921</v>
       </c>
       <c r="J20">
-        <v>0.2613448170356492</v>
+        <v>1.035332921086081</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>2.348012155666424</v>
+        <v>5.031157061213378</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.685716518922709</v>
+        <v>0.5190475376168564</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.787732380468583</v>
+        <v>5.557301971306572</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.4053025255672367</v>
+        <v>1.606924540535516</v>
       </c>
       <c r="E21">
-        <v>0.2901887520305451</v>
+        <v>1.201747379167927</v>
       </c>
       <c r="F21">
-        <v>5.370930735017708</v>
+        <v>7.900597120648229</v>
       </c>
       <c r="G21">
-        <v>0.002588562727464761</v>
+        <v>0.0006711111946218085</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.439923634979948</v>
+        <v>0.7490968186430464</v>
       </c>
       <c r="J21">
-        <v>0.294627401692992</v>
+        <v>1.206351396654043</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>2.487199730947225</v>
+        <v>5.835830145036709</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.655937369609092</v>
+        <v>0.4305862621720102</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.879897871494563</v>
+        <v>6.047693908851841</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.4327749881819329</v>
+        <v>1.782215733423101</v>
       </c>
       <c r="E22">
-        <v>0.3115582586856931</v>
+        <v>1.327285559340638</v>
       </c>
       <c r="F22">
-        <v>5.456192877705462</v>
+        <v>8.657409206469282</v>
       </c>
       <c r="G22">
-        <v>0.002581093849436667</v>
+        <v>0.0006533784650293357</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.432904736667339</v>
+        <v>0.7866162552240752</v>
       </c>
       <c r="J22">
-        <v>0.3164347082991696</v>
+        <v>1.327235695530931</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>2.579509699900598</v>
+        <v>6.402652070848717</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.637118206935824</v>
+        <v>0.3746006194211908</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.830597809780159</v>
+        <v>5.783115226583107</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.4180897981243845</v>
+        <v>1.686953857833373</v>
       </c>
       <c r="E23">
-        <v>0.3001429572384779</v>
+        <v>1.259163497599673</v>
       </c>
       <c r="F23">
-        <v>5.410353298413185</v>
+        <v>8.245727229979167</v>
       </c>
       <c r="G23">
-        <v>0.002585055602818863</v>
+        <v>0.0006629203376988971</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.436573631219446</v>
+        <v>0.765748231190841</v>
       </c>
       <c r="J23">
-        <v>0.304790231449573</v>
+        <v>1.261711164730656</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>2.530117312120126</v>
+        <v>6.095663271527542</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.647103410445236</v>
+        <v>0.4043036983627832</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.646272845421947</v>
+        <v>4.835930491199974</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.3629539038679184</v>
+        <v>1.358648235580773</v>
       </c>
       <c r="E24">
-        <v>0.2571195299759665</v>
+        <v>1.022458422971894</v>
       </c>
       <c r="F24">
-        <v>5.244003629979545</v>
+        <v>6.835867728372079</v>
       </c>
       <c r="G24">
-        <v>0.002600601030413184</v>
+        <v>0.00069765316958351</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.452157346575632</v>
+        <v>0.703188082778631</v>
       </c>
       <c r="J24">
-        <v>0.2608016622376681</v>
+        <v>1.032658716983434</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>2.345759447296473</v>
+        <v>5.018557674606086</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.686214085035116</v>
+        <v>0.5205222216059511</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.452454350248559</v>
+        <v>3.893531570400683</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.3044170520095406</v>
+        <v>1.049757049049759</v>
       </c>
       <c r="E25">
-        <v>0.2111028156518699</v>
+        <v>0.7966192819324363</v>
       </c>
       <c r="F25">
-        <v>5.079658507099396</v>
+        <v>5.530831510329023</v>
       </c>
       <c r="G25">
-        <v>0.00261853803714253</v>
+        <v>0.0007335728927708222</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.472523037621826</v>
+        <v>0.6607684827358966</v>
       </c>
       <c r="J25">
-        <v>0.2135450002162003</v>
+        <v>0.8119239984144571</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>2.152472797736664</v>
+        <v>3.978274555400844</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.731155242505192</v>
+        <v>0.6528995997308247</v>
       </c>
       <c r="O25">
         <v>0</v>
